--- a/changes-required/db-change-log.xlsx
+++ b/changes-required/db-change-log.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
   <si>
     <t>Date Requested</t>
   </si>
@@ -138,6 +138,96 @@
   </si>
   <si>
     <t xml:space="preserve">Confirmed with Neil that the Despatch action should not cause a status change on the application. Only the Archive action updates the status to Completed. </t>
+  </si>
+  <si>
+    <t>application.application_status_type</t>
+  </si>
+  <si>
+    <t>Change display_value for the dead status to Annulled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dead is not a good description for a status. Annulled / Annulment accurately reflects the state of the application does not have the negative conotations of Dead. Agreed with Neil. </t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Add new role - "ManageBR" with displayValue="Manage business rules" and Description="Allows to manage business rules".</t>
+  </si>
+  <si>
+    <t>system.query_fields</t>
+  </si>
+  <si>
+    <t>Add field_name to query_fields table. Must be not null and match the name of the field used in the dynamic query.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MyBatis does necessarily  not return the query results in the order they are selected and omits null values completely from the reuslt Map. Need to use the field_name to match the returned values to there field display values.  </t>
+  </si>
+  <si>
+    <t>system.query_fields data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Mybatis code will merge the fields from query_fields with the fields in the query result to ensure all fields are included in the generic result. This minimises the configuration of query fields to only those that require localized display names. </t>
+  </si>
+  <si>
+    <t>system.query</t>
+  </si>
+  <si>
+    <t>Update all informationtool selects to use the_geom at the alias for st_asewkb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensures  the field name used for st_asewkb in the Generic Result  is the_geom. This avoids the need for additional config in query_fields for this field. </t>
+  </si>
+  <si>
+    <t>Remove config data for the id field and the_geom field. Code now treats the values in query_fields as those requiring display names. All other fields in the query are obtained from the result set.  Ensure index is reordered from 0</t>
+  </si>
+  <si>
+    <t>Update informationtool . Get_application query to select nr as label rather than label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">label does not exist in the application table. </t>
+  </si>
+  <si>
+    <t>Elton: I added column name instead of field_name, because I have used everywhere in db</t>
+  </si>
+  <si>
+    <t>We can also leave it nr in this case without putting as label.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has to be changed to system.query_field </t>
+  </si>
+  <si>
+    <t>because everywhere in the db / model the naming is in singular</t>
+  </si>
+  <si>
+    <t>Everywhere</t>
+  </si>
+  <si>
+    <t>triggers to handle default values for columns that are not optional but supplied with nulls has to be removed.</t>
+  </si>
+  <si>
+    <t>This is handled in the service layer</t>
+  </si>
+  <si>
+    <t>party.is_rightholder</t>
+  </si>
+  <si>
+    <t>Return true if party connected with any RRR</t>
+  </si>
+  <si>
+    <t>Needed to distinguish parties as rightholders</t>
+  </si>
+  <si>
+    <t>CREATE OR REPLACE FUNCTION "party".is_rightholder(id character varying)
+  RETURNS boolean AS
+$BODY$
+BEGIN
+  return (SELECT (CASE (SELECT COUNT(1) FROM administrative.party_for_rrr ap WHERE ap.party_id = id) WHEN 0 THEN false ELSE true END));
+END;
+$BODY$
+  LANGUAGE plpgsql VOLATILE
+  COST 100;
+ALTER FUNCTION "party".is_rightholder(character varying) OWNER TO postgres;</t>
   </si>
 </sst>
 </file>
@@ -181,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -199,6 +289,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -495,11 +591,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -684,6 +780,195 @@
       </c>
       <c r="E8" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="F8" s="8">
+        <v>40891</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="45">
+      <c r="A9" s="3">
+        <v>40879</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="8">
+        <v>40891</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="60">
+      <c r="A10" s="7">
+        <v>40884</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="8">
+        <v>40891</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="60">
+      <c r="A11" s="3">
+        <v>40891</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="8">
+        <v>40891</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="105">
+      <c r="A12" s="3">
+        <v>40891</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="8">
+        <v>40891</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="45">
+      <c r="A13" s="3">
+        <v>40891</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="8">
+        <v>40891</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="45">
+      <c r="A14" s="3">
+        <v>40891</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="8">
+        <v>40891</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30">
+      <c r="A15" s="3">
+        <v>40891</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="8">
+        <v>40891</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="60">
+      <c r="A16" s="3">
+        <v>40891</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="8">
+        <v>40891</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="255">
+      <c r="A17" s="7">
+        <v>40891</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="8">
+        <v>40893</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/changes-required/db-change-log.xlsx
+++ b/changes-required/db-change-log.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="68">
   <si>
     <t>Date Requested</t>
   </si>
@@ -228,6 +228,223 @@
   LANGUAGE plpgsql VOLATILE
   COST 100;
 ALTER FUNCTION "party".is_rightholder(character varying) OWNER TO postgres;</t>
+  </si>
+  <si>
+    <t>application.getlodgetiming</t>
+  </si>
+  <si>
+    <t>application.getlodgement</t>
+  </si>
+  <si>
+    <t>Create new function to retrieve data for lodgement report (dealing categories)</t>
+  </si>
+  <si>
+    <t>Create new function to retrieve data for lodgement report (timing)</t>
+  </si>
+  <si>
+    <t>Needed for make calculation on raw data retrieved from db</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE OR REPLACE FUNCTION application.getlodgement(fromdate character varying, todate character varying)
+  RETURNS SETOF record AS
+$BODY$
+DECLARE 
+    resultType  varchar;
+    resultGroup varchar;
+    resultTotal integer :=0 ;
+    resultTotalPerc decimal:=0 ;
+    resultDailyAvg  decimal:=0 ;
+    resultTotalReq integer:=0 ;
+    resultReqPerc  decimal:=0 ;
+    TotalTot integer:=0 ;
+    rec     record;
+    sqlSt varchar;
+    lodgementFound boolean;
+    recToReturn record;
+BEGIN
+    sqlSt:= '';
+    sqlSt:= 'select   1 as order,
+         application.service_historic.request_type_code as type,
+         application.request_type.request_category_code as group,
+         count(application.service_historic.id) as total,
+         round((CAST(count(application.service_historic.id) as decimal)
+         /
+         (to_date('''|| toDate || ''',''yyyy-mm-dd'') - to_date('''|| fromDate || ''',''yyyy-mm-dd''))
+         ),3) as dailyaverage
+from     application.service_historic,
+         application.request_type
+where    application.service_historic.request_type_code = application.request_type.code
+         and
+         application.service_historic.lodging_datetime between to_date('''|| fromDate || ''',''yyyy-mm-dd'')  and to_date('''|| toDate || ''',''yyyy-mm-dd'')
+         and application.service_historic.action_code=''lodge''
+         and application.service_historic.application_id in
+       (select distinct(application.application_historic.id)
+        from application.application_historic)
+group by application.service_historic.request_type_code,
+         application.request_type.request_category_code
+union
+select   2 as order,
+         ''Total'' as type,
+         ''All'' as group,
+         count(application.service_historic.id) as total,
+         round((CAST(count(application.service_historic.id) as decimal)
+         /
+         (to_date('''|| toDate || ''',''yyyy-mm-dd'') - to_date('''|| fromDate || ''',''yyyy-mm-dd''))
+         ),3) as dailyaverage
+from     application.service_historic,
+         application.request_type
+where    application.service_historic.request_type_code = application.request_type.code
+         and
+         application.service_historic.lodging_datetime between to_date('''|| fromDate || ''',''yyyy-mm-dd'')  and to_date('''|| toDate || ''',''yyyy-mm-dd'')
+         and application.service_historic.application_id in
+       (select distinct(application.application_historic.id)
+        from application.application_historic)
+order by 1,3,2;
+';
+    --raise exception '%',sqlSt;
+    lodgementFound = false;
+    -- Loop through results
+         select   
+         count(application.service_historic.id)
+         into TotalTot
+from     application.service_historic,
+         application.request_type
+where    application.service_historic.request_type_code = application.request_type.code
+         and
+         application.service_historic.lodging_datetime between to_date(''|| fromDate || '','yyyy-mm-dd')  and to_date(''|| toDate || '','yyyy-mm-dd')
+         and application.service_historic.application_id in
+       (select distinct(application.application_historic.id)
+        from application.application_historic);
+    FOR rec in EXECUTE sqlSt loop
+            resultType:= rec.type;
+     resultGroup:= rec.group;
+     resultTotal:= rec.total;
+     resultTotalPerc:= round((CAST(rec.total as decimal)*100/TotalTot),3);
+     resultDailyAvg:= rec.dailyaverage;
+            resultTotalReq:= 0;
+            if rec.type = 'Total' then
+                 select   count(application.service_historic.id) into resultTotalReq
+  from application.service_historic
+  where application.service_historic.action_code='lodge'
+                      and
+                      application.service_historic.lodging_datetime between to_date(''|| fromDate || '','yyyy-mm-dd')  and to_date(''|| toDate || '','yyyy-mm-dd')
+                      and application.service_historic.application_id in
+        (select application.application_historic.id
+         from application.application_historic
+         where application.application_historic.action_code='requisition');
+            else
+                  select  count(application.service_historic.id) into resultTotalReq
+  from application.service_historic
+  where application.service_historic.action_code='lodge'
+                      and
+                      application.service_historic.lodging_datetime between to_date(''|| fromDate || '','yyyy-mm-dd')  and to_date(''|| toDate || '','yyyy-mm-dd')
+                      and application.service_historic.application_id in
+        (select application.application_historic.id
+         from application.application_historic
+         where application.application_historic.action_code='requisition'
+        )   
+  and   application.service_historic.request_type_code = rec.type     
+  group by application.service_historic.request_type_code;
+            end if;
+            resultReqPerc:= round((CAST(resultTotalReq as decimal)*100/rec.total),3);
+            if resultType is null then
+              resultType :=0 ;
+            end if;
+     if resultTotal is null then
+              resultTotal  :=0 ;
+            end if;  
+     if resultTotalPerc is null then
+          resultTotalPerc  :=0 ;
+            end if;  
+     if resultDailyAvg is null then
+         resultDailyAvg  :=0 ;
+            end if;  
+     if resultTotalReq is null then
+         resultTotalReq  :=0 ;
+            end if;  
+     if resultReqPerc is null then
+         resultReqPerc  :=0 ;
+            end if;  
+     if TotalTot is null then
+        TotalTot  :=0 ;
+            end if;  
+          select into recToReturn resultType::varchar, resultGroup::varchar, resultTotal::integer, resultTotalPerc::decimal,resultDailyAvg::decimal,resultTotalReq::integer,resultReqPerc::decimal;
+          return next recToReturn;
+          lodgementFound = true;
+    end loop;
+    if (not lodgementFound) then
+        RAISE EXCEPTION 'no_lodgement_found';
+    end if;
+    return;
+END;
+$BODY$
+  LANGUAGE plpgsql VOLATILE
+  COST 100
+  ROWS 1000;
+ALTER FUNCTION application.getlodgement(character varying, character varying) OWNER TO postgres;
+</t>
+  </si>
+  <si>
+    <t>CREATE OR REPLACE FUNCTION application.getlodgetiming(fromdate character varying, todate character varying)
+  RETURNS SETOF record AS
+$BODY$
+DECLARE 
+    resultCode  varchar;
+    resultTotal integer :=0 ;
+    resultDailyAvg  varchar;
+    rec     record;
+    sqlSt varchar;
+    lodgementFound boolean;
+    recToReturn record;
+BEGIN
+    sqlSt:= '';
+    sqlSt:= 'select count(code) as total,
+       application.application_action_type.code as code,
+        round((CAST(count(application.application_action_type.code) as decimal)
+         /
+         (to_date('''|| toDate || ''',''yyyy-mm-dd'') - to_date('''|| fromDate || ''',''yyyy-mm-dd''))
+         ),3) as dailyaverage,
+         case when application.application_action_type.code= ''lodge'' then 1
+         else 2
+         end   as order    
+from application.application_historic,
+     application.application_action_type
+where  application.application_historic.action_code = application.application_action_type.code
+and
+application.application_historic.change_time between to_date('''|| fromDate || ''',''yyyy-mm-dd'')  and to_date('''|| toDate || ''',''yyyy-mm-dd'')
+or application.application_historic.lodging_datetime between to_date('''|| fromDate || ''',''yyyy-mm-dd'')  and to_date('''|| toDate || ''',''yyyy-mm-dd'')
+group by  application.application_action_type.code 
+union select 0 as total,
+       application.application_action_type.code as code,
+       0  as dailyaverage,
+       2 as order 
+ from 
+     application.application_action_type
+where  application.application_action_type.code not in (select application.application_historic.action_code from application.application_historic )
+union 
+select count(code) as total,
+       ''lodged not completed'' as code,
+        round((CAST(count(application.application_action_type.code) as decimal)
+         /
+         (to_date('''|| toDate || ''',''yyyy-mm-dd'') - to_date('''|| fromDate || ''',''yyyy-mm-dd''))
+         ),3) as dailyaverage,
+         0 as order  
+from application.application_historic,
+     application.application_action_type
+where  application.application_historic.status_code = ''lodged''
+and  application.application_historic.change_action = ''i''
+and
+application.application_historic.id not in
+(select application.application_historic.id 
+from application.application_historic
+  where  application.application_historic.status_code = ''completed''
+)
+and
+application.application_historic.change_time between to_date('''|| fromDate || ''',''yyyy-mm-dd'')  and to_date('''|| toDate || ''',''yyyy-mm-dd'')
+or application.application_historic.lodging_datetime between to_date('''|| fromDate || ''',''yyyy-mm-dd'')  and to_date('''|| toDate || ''',''yyyy-mm-dd'')
+group by  application.application_action_type.code
+order by 4,2
+';</t>
   </si>
 </sst>
 </file>
@@ -591,18 +808,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="33.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="58.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.85546875" style="1" customWidth="1"/>
@@ -969,6 +1186,52 @@
       </c>
       <c r="G17" s="1" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="409.5">
+      <c r="A18" s="7">
+        <v>40956</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="7">
+        <v>40956</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="409.5">
+      <c r="A19" s="7">
+        <v>40956</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="7">
+        <v>40956</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
